--- a/streamers.xlsx
+++ b/streamers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="40560" yWindow="2040" windowWidth="35925" windowHeight="18975" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -495,10 +495,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-23T05:02:21Z</t>
+          <t>2025-12-07T04:29:20Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-21T19:10:32Z</t>
+          <t>2025-12-07T15:44:21Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-21T17:57:51Z</t>
+          <t>2025-12-11T17:12:48Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-11-25T02:54:31Z</t>
+          <t>2025-12-04T03:11:07Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-11-25T18:55:38Z</t>
+          <t>2025-12-11T18:59:31Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-11-20T17:41:24Z</t>
+          <t>2025-12-09T17:33:08Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-11-24T15:01:54Z</t>
+          <t>2025-12-10T15:04:03Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-11-25T14:09:12Z</t>
+          <t>2025-12-11T14:19:32Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-11-25T18:10:27Z</t>
+          <t>2025-12-11T16:26:12Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>No data found</t>
+          <t>2025-12-11T13:29:19Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-11-21T06:39:24Z</t>
+          <t>2025-12-11T05:01:32Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-11-24T22:49:34Z</t>
+          <t>2025-12-11T22:49:36Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2414,12 +2414,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-09-26T23:25:13Z</t>
+          <t>No data found</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-11-21T01:51:31Z</t>
+          <t>2025-12-11T04:55:05Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-11-23T23:04:48Z</t>
+          <t>2025-12-11T23:01:31Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025-11-24T21:00:45Z</t>
+          <t>2025-12-11T21:08:14Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025-11-16T18:54:12Z</t>
+          <t>2025-12-06T16:21:26Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025-11-16T17:08:16Z</t>
+          <t>2025-12-07T15:18:34Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3854,11 +3854,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>I teach economics and find that video games are a great way to do so!</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
     </row>
     <row r="107" ht="15.75" customHeight="1" thickBot="1">
       <c r="A107" t="inlineStr">
@@ -3878,7 +3874,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2025-11-21T17:38:21Z</t>
+          <t>2025-12-05T17:34:01Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3910,7 +3906,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025-11-20T19:02:12Z</t>
+          <t>2025-12-08T19:01:49Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3974,7 +3970,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2025-11-23T15:00:19Z</t>
+          <t>2025-11-30T15:00:45Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4283,12 +4279,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2025-10-04T18:51:00Z</t>
+          <t>No data found</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4343,7 +4339,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2025-11-23T17:08:24Z</t>
+          <t>2025-11-30T17:43:42Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4467,7 +4463,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2025-11-19T18:12:17Z</t>
+          <t>2025-12-04T18:44:03Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4627,7 +4623,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2025-11-24T03:47:29Z</t>
+          <t>2025-12-10T16:32:30Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4687,7 +4683,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2025-11-23T15:00:41Z</t>
+          <t>2025-12-12T00:18:22Z</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4783,7 +4779,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2025-11-25T19:05:54Z</t>
+          <t>2025-12-09T18:59:55Z</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4879,7 +4875,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2025-11-20T00:57:21Z</t>
+          <t>2025-12-04T00:59:40Z</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4975,7 +4971,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2025-11-21T20:24:39Z</t>
+          <t>2025-11-30T07:43:40Z</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5039,12 +5035,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>No data found</t>
+          <t>2025-11-27T00:44:55Z</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5103,7 +5099,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2025-11-24T20:20:11Z</t>
+          <t>2025-12-10T22:08:27Z</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5167,7 +5163,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2025-11-22T14:56:14Z</t>
+          <t>2025-12-07T00:21:44Z</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5199,7 +5195,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2025-11-24T14:56:10Z</t>
+          <t>2025-12-08T15:04:20Z</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5231,7 +5227,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2025-11-25T02:02:24Z</t>
+          <t>2025-12-11T18:59:27Z</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5263,7 +5259,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2025-11-25T16:26:13Z</t>
+          <t>2025-12-11T16:28:34Z</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5295,7 +5291,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2025-11-25T10:04:10Z</t>
+          <t>2025-12-11T10:00:47Z</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5305,7 +5301,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Zac. Aussie, Gardening, Tech, Dialogue. Deeply Optimistic yet Brutally Realistic.🎓 Educator | 🎥 Streamer on Twitch🌍 Making knowledge accessible &amp; engaging🔗 Syndicalist perspectives | ✍️ Exploring history, theory, philosophy and the world.</t>
+          <t>Zac. Aussie, Gardening, Tech, Dialogue. Deeply Optimistic yet Brutally Realistic.🎓 Educator | 🎥 Streamer on Twitch🌍 Making knowledge accessible &amp; engaging 🔗 Syndicalist perspectives | ✍️ Exploring history, theory, philosophy and the world.</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5355,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2025-11-24T01:47:16Z</t>
+          <t>2025-12-12T01:45:12Z</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5391,7 +5387,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2025-11-18T20:05:31Z</t>
+          <t>2025-12-09T20:33:49Z</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5519,7 +5515,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2025-11-21T19:59:39Z</t>
+          <t>2025-12-05T20:05:25Z</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5551,7 +5547,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2025-11-25T17:00:09Z</t>
+          <t>2025-12-10T23:32:42Z</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5583,7 +5579,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2025-11-24T17:22:19Z</t>
+          <t>2025-12-11T13:33:10Z</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5615,7 +5611,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2025-11-23T13:46:56Z</t>
+          <t>2025-12-08T16:10:23Z</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5647,7 +5643,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2025-11-22T17:05:52Z</t>
+          <t>2025-12-11T19:50:59Z</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5679,7 +5675,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2025-11-23T10:57:51Z</t>
+          <t>2025-12-11T09:30:19Z</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5711,7 +5707,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2025-11-24T01:10:17Z</t>
+          <t>2025-12-11T01:00:39Z</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5743,7 +5739,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2025-11-18T19:29:01Z</t>
+          <t>2025-12-09T19:28:15Z</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5775,7 +5771,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2025-11-24T22:04:37Z</t>
+          <t>2025-12-10T21:55:41Z</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5807,7 +5803,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2025-11-20T21:22:33Z</t>
+          <t>2025-12-04T21:22:37Z</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5839,7 +5835,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2025-11-24T18:04:59Z</t>
+          <t>2025-12-10T22:03:03Z</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5871,7 +5867,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2025-11-24T23:03:41Z</t>
+          <t>2025-12-12T00:00:17Z</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5935,7 +5931,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2025-11-22T21:50:00Z</t>
+          <t>2025-12-11T19:16:09Z</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5945,7 +5941,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>There's no problem I can't NOT solve! Have a question about math? Please ask it! When I'm not answering questions, you can find me studying different topics in Math and Physics, playing DayZ and a variety of games, and other random things. (Formerly DonDoesMath)</t>
+          <t>There's no problem I can't NOT solve! Have a question about math? Please ask it! When I'm not answering questions, you can find me studying different topics in Math and Physics, playing DayZ and a variety of games, and other random things.</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5995,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2025-11-23T01:30:35Z</t>
+          <t>2025-12-07T01:17:51Z</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6010,6 +6006,390 @@
       <c r="F174" t="inlineStr">
         <is>
           <t>Teacher, health &amp; wellness educator, variety vtuber. Available for collabs and voice work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>AcademyOfUselessIdeas</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Mathematics and Economics</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Upper-division Mathematics</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2025-12-07T18:52:16Z</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>The academy of useless ideas is a movement with the goal of talking about math, philosophy, and storytelling without any other utility than their aesthetic value.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>HappyKnightmares</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Social Science</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Psychology, Music, Games</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2025-12-07T02:34:54Z</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I read and discuss scientific literature and play odd retro games. Sometimes I cook things. So far, topics have included Music Cognition, Motivation Psychology, Neuropsychology, Child Development, Science of Memory and Psychology of Deafness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>mathspellbook</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Mathematics and Economics</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Self-studying Mathematics</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>No data found</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Let's use math and physics to create the universe around us. Let's play with the ideas and expand beyond space and time. Like everyone, I'm curious and learning all this stuff on my own at my own pace. Hopefully we can learn all this stuff together on this journey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>GeneralSte</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Social Science</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Roman History/Architecture</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2025-12-10T21:22:53Z</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Ste (Steve). Irish Fella. Archaeologist &amp; Ancient History PhD Researcher &amp; Content Creator. Contact Email: generalstegaming@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SharkG33k</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Life Sciences</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Shark Conservationist, Game Developer, Metal Musician</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2025-12-12T01:28:12Z</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Content creation for shark conservation 🦈 Marine science communication, environmental advocacy, educational games and educational shark metal music 🤘          Business email: streamingforsharks@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>WalkingStickLibrary</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Social Science</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Research Literacy and Skills</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2025-12-11T02:30:31Z</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>You care about information. Now get the basic skills and techniques to spread the info love, to yourself, for your coursework, in real life, and for your friends.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>DrawCuriosity</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Life Sciences</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Insects</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2025-12-10T21:10:21Z</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Where Dr. Inés Dawson goes to work on her future videos...</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>DrAlexanderClarke</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Social Science</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Naval History</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2025-12-11T19:30:28Z</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Dr Alex Clarke, Naval Historian with a youtube channel... a first book published (starting the second one)... who often features on World of Warships Armchair Admirals https://www.twitch.tv/worldofwarships</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ArchitectureTV</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Social Science</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>IRL Architecture Walks</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2025-12-07T16:10:11Z</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>My name is Ashley, I'm a licensed Architect in Toronto who loves design and architecture. Email: ashley@ashleyeusebio.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>JapanesePrintMaking</t>
+        </is>
+      </c>
+      <c r="B184" s="1" t="inlineStr">
+        <is>
+          <t>Practical Crafts</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Making Japanese Artwork</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2025-12-10T23:00:04Z</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Woodblock printmaker Dave Bull has been living in Tokyo since the mid 1980s, making Japanese prints with traditional techniques. In recent years, his workshop has become well-known for their Ukiyoe Heroes prints produced in collaboration with illustrator Jed Henry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>IrishJohnGames</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Game Development</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2025-12-10T19:00:29Z</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Hi, I'm John - I am a Web Dev turned Professional Game Developer. I am the creator of Rise of Piracy. After 4 years of solo development &amp; streaming I am now published by MicroProse and I have my own Game Studio. I encourage questions and interaction, don't be afraid to speak up &amp; say hi :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NovaBuildingStuff </t>
+        </is>
+      </c>
+      <c r="B186" s="1" t="inlineStr">
+        <is>
+          <t>Practical Crafts</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Engineering </t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>No data found</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Thank you to the Building Committee for all your support during this project. The live component of Building Stuff with NOVA has ended but the research continues! Subscribe on YouTube to stay in touch &amp; watch the 3 Building Stuff films 11/13, 11/20 &amp; 11/27. We want to know what you think!</t>
         </is>
       </c>
     </row>
